--- a/fund/data.xlsx
+++ b/fund/data.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -29,7 +29,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -58,8 +58,70 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -81,9 +143,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,8 +158,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -110,73 +170,6 @@
       <sz val="15"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -187,187 +180,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,15 +379,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,6 +422,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -453,21 +452,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -478,139 +462,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
@@ -619,33 +612,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
@@ -656,6 +644,24 @@
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1072,24 +1078,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:N2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col width="16.9333333333333" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="3" max="5"/>
     <col width="16.9333333333333" customWidth="1" min="6" max="6"/>
     <col width="26.2666666666667" customWidth="1" min="7" max="7"/>
     <col width="20.2666666666667" customWidth="1" min="8" max="8"/>
-    <col width="10.0666666666667" customWidth="1" min="10" max="10"/>
+    <col width="15.875" customWidth="1" min="10" max="10"/>
     <col width="11.1333333333333" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
-    <col width="12.7333333333333" customWidth="1" min="13" max="13"/>
-    <col width="12.4" customWidth="1" min="14" max="14"/>
+    <col width="19.875" customWidth="1" min="13" max="13"/>
+    <col width="24.75" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1164,34 +1170,34 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="9" t="inlineStr">
+    <row r="2" ht="297" customHeight="1">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>广发科技先锋混合</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>008903</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr"/>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="D2" s="11" t="inlineStr"/>
+      <c r="E2" s="11" t="inlineStr">
         <is>
           <t>1.8437</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>3.49%</t>
         </is>
       </c>
-      <c r="G2" s="9" t="inlineStr">
+      <c r="G2" s="11" t="inlineStr">
         <is>
           <t>亿纬锂能 10.05% 5.21% 
 隆基股份 9.74% 3.89% 
@@ -1217,7 +1223,7 @@
 持仓截止日期: 2020-12-31</t>
         </is>
       </c>
-      <c r="H2" s="9" t="inlineStr">
+      <c r="H2" s="11" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.8437 3.49% 
 02-09 1.7815 3.38% 
@@ -1242,28 +1248,171 @@
 </t>
         </is>
       </c>
-      <c r="I2" s="9" t="inlineStr">
+      <c r="I2" s="11" t="inlineStr">
         <is>
           <t>刘格菘</t>
         </is>
       </c>
-      <c r="J2" s="12" t="inlineStr">
+      <c r="J2" s="14" t="inlineStr">
         <is>
           <t>2020-01-22</t>
         </is>
       </c>
-      <c r="K2" s="12" t="inlineStr">
+      <c r="K2" s="14" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L2" s="9" t="inlineStr">
+      <c r="L2" s="11" t="inlineStr">
         <is>
           <t>239.70亿元</t>
         </is>
       </c>
-      <c r="M2" s="9" t="inlineStr"/>
-      <c r="N2" s="9" t="inlineStr">
+      <c r="M2" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-12-31 239.70 
+2020-09-30 236.87 
+2020-06-30 257.38 
+2020-03-31 248.38 
+2020-01-22 79.10 
+</t>
+        </is>
+      </c>
+      <c r="N2" s="11" t="inlineStr">
+        <is>
+          <t>2020-06-30: 193.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>1.8437</t>
+        </is>
+      </c>
+      <c r="F3" s="11" t="inlineStr">
+        <is>
+          <t>3.49%</t>
+        </is>
+      </c>
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>亿纬锂能 10.05% 5.21% 
+隆基股份 9.74% 3.89% 
+京东方Ａ 9.51% 0.32% 
+康泰生物 9.30% 11.51% 
+通威股份 8.32% 6.00% 
+高德红外 4.64% 0.05% 
+用友网络 4.50% 5.13% 
+荣盛石化 4.03% 0.59% 
+药明康德 3.42% 1.63% 
+兆易创新 2.82% 0.09% 
+亿纬锂能 10.05% 5.21% 
+隆基股份 9.74% 3.89% 
+京东方Ａ 9.51% 0.32% 
+康泰生物 9.30% 11.51% 
+通威股份 8.32% 6.00% 
+高德红外 4.64% 0.05% 
+用友网络 4.50% 5.13% 
+荣盛石化 4.03% 0.59% 
+药明康德 3.42% 1.63% 
+兆易创新 2.82% 0.09% 
+亿纬锂能 10.05% 5.21% 
+隆基股份 9.74% 3.89% 
+京东方Ａ 9.51% 0.32% 
+康泰生物 9.30% 11.51% 
+通威股份 8.32% 6.00% 
+高德红外 4.64% 0.05% 
+用友网络 4.50% 5.13% 
+荣盛石化 4.03% 0.59% 
+药明康德 3.42% 1.63% 
+兆易创新 2.82% 0.09% 
+前十持仓占比合计：66.33%
+持仓截止日期: 2020-12-31</t>
+        </is>
+      </c>
+      <c r="H3" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02-10 1.8437 3.49% 
+02-09 1.7815 3.38% 
+02-08 1.7233 1.32% 
+02-05 1.7009 -1.46% 
+02-04 1.7261 -0.48% 
+02-03 1.7345 -0.30% 
+02-02 1.7397 2.65% 
+02-01 1.6948 0.71% 
+01-29 1.6829 -2.25% 
+01-28 1.7217 -5.03% 
+02-10 1.8437 3.49% 
+02-09 1.7815 3.38% 
+02-08 1.7233 1.32% 
+02-05 1.7009 -1.46% 
+02-04 1.7261 -0.48% 
+02-03 1.7345 -0.30% 
+02-02 1.7397 2.65% 
+02-01 1.6948 0.71% 
+01-29 1.6829 -2.25% 
+01-28 1.7217 -5.03% 
+02-10 1.8437 3.49% 
+02-09 1.7815 3.38% 
+02-08 1.7233 1.32% 
+02-05 1.7009 -1.46% 
+02-04 1.7261 -0.48% 
+02-03 1.7345 -0.30% 
+02-02 1.7397 2.65% 
+02-01 1.6948 0.71% 
+01-29 1.6829 -2.25% 
+01-28 1.7217 -5.03% 
+</t>
+        </is>
+      </c>
+      <c r="I3" s="11" t="inlineStr">
+        <is>
+          <t>刘格菘</t>
+        </is>
+      </c>
+      <c r="J3" s="11" t="inlineStr">
+        <is>
+          <t>2020-01-22</t>
+        </is>
+      </c>
+      <c r="K3" s="11" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="L3" s="11" t="inlineStr">
+        <is>
+          <t>239.70亿元</t>
+        </is>
+      </c>
+      <c r="M3" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-12-31 239.70 
+2020-09-30 236.87 
+2020-06-30 257.38 
+2020-03-31 248.38 
+2020-01-22 79.10 
+</t>
+        </is>
+      </c>
+      <c r="N3" s="11" t="inlineStr">
         <is>
           <t>2020-06-30: 193.64%</t>
         </is>

--- a/fund/data.xlsx
+++ b/fund/data.xlsx
@@ -619,7 +619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -634,6 +634,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
@@ -1171,45 +1186,35 @@
       </c>
     </row>
     <row r="2" ht="297" customHeight="1">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>广发科技先锋混合</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>008903</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="16" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr"/>
-      <c r="E2" s="11" t="inlineStr">
+      <c r="D2" s="16" t="inlineStr"/>
+      <c r="E2" s="16" t="inlineStr">
         <is>
           <t>1.8437</t>
         </is>
       </c>
-      <c r="F2" s="13" t="inlineStr">
+      <c r="F2" s="18" t="inlineStr">
         <is>
           <t>3.49%</t>
         </is>
       </c>
-      <c r="G2" s="11" t="inlineStr">
+      <c r="G2" s="16" t="inlineStr">
         <is>
           <t>亿纬锂能 10.05% 5.21% 
-隆基股份 9.74% 3.89% 
-京东方Ａ 9.51% 0.32% 
-康泰生物 9.30% 11.51% 
-通威股份 8.32% 6.00% 
-高德红外 4.64% 0.05% 
-用友网络 4.50% 5.13% 
-荣盛石化 4.03% 0.59% 
-药明康德 3.42% 1.63% 
-兆易创新 2.82% 0.09% 
-亿纬锂能 10.05% 5.21% 
 隆基股份 9.74% 3.89% 
 京东方Ａ 9.51% 0.32% 
 康泰生物 9.30% 11.51% 
@@ -1223,7 +1228,7 @@
 持仓截止日期: 2020-12-31</t>
         </is>
       </c>
-      <c r="H2" s="11" t="inlineStr">
+      <c r="H2" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.8437 3.49% 
 02-09 1.7815 3.38% 
@@ -1235,40 +1240,30 @@
 02-01 1.6948 0.71% 
 01-29 1.6829 -2.25% 
 01-28 1.7217 -5.03% 
-02-10 1.8437 3.49% 
-02-09 1.7815 3.38% 
-02-08 1.7233 1.32% 
-02-05 1.7009 -1.46% 
-02-04 1.7261 -0.48% 
-02-03 1.7345 -0.30% 
-02-02 1.7397 2.65% 
-02-01 1.6948 0.71% 
-01-29 1.6829 -2.25% 
-01-28 1.7217 -5.03% 
 </t>
         </is>
       </c>
-      <c r="I2" s="11" t="inlineStr">
+      <c r="I2" s="16" t="inlineStr">
         <is>
           <t>刘格菘</t>
         </is>
       </c>
-      <c r="J2" s="14" t="inlineStr">
+      <c r="J2" s="19" t="inlineStr">
         <is>
           <t>2020-01-22</t>
         </is>
       </c>
-      <c r="K2" s="14" t="inlineStr">
+      <c r="K2" s="19" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L2" s="11" t="inlineStr">
+      <c r="L2" s="16" t="inlineStr">
         <is>
           <t>239.70亿元</t>
         </is>
       </c>
-      <c r="M2" s="11" t="inlineStr">
+      <c r="M2" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 239.70 
 2020-09-30 236.87 
@@ -1278,62 +1273,42 @@
 </t>
         </is>
       </c>
-      <c r="N2" s="11" t="inlineStr">
+      <c r="N2" s="16" t="inlineStr">
         <is>
           <t>2020-06-30: 193.64%</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>广发科技先锋混合</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B3" s="20" t="inlineStr">
         <is>
           <t>008903</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr"/>
-      <c r="E3" s="11" t="inlineStr">
+      <c r="D3" s="16" t="inlineStr"/>
+      <c r="E3" s="16" t="inlineStr">
         <is>
           <t>1.8437</t>
         </is>
       </c>
-      <c r="F3" s="11" t="inlineStr">
+      <c r="F3" s="16" t="inlineStr">
         <is>
           <t>3.49%</t>
         </is>
       </c>
-      <c r="G3" s="11" t="inlineStr">
+      <c r="G3" s="16" t="inlineStr">
         <is>
           <t>亿纬锂能 10.05% 5.21% 
-隆基股份 9.74% 3.89% 
-京东方Ａ 9.51% 0.32% 
-康泰生物 9.30% 11.51% 
-通威股份 8.32% 6.00% 
-高德红外 4.64% 0.05% 
-用友网络 4.50% 5.13% 
-荣盛石化 4.03% 0.59% 
-药明康德 3.42% 1.63% 
-兆易创新 2.82% 0.09% 
-亿纬锂能 10.05% 5.21% 
-隆基股份 9.74% 3.89% 
-京东方Ａ 9.51% 0.32% 
-康泰生物 9.30% 11.51% 
-通威股份 8.32% 6.00% 
-高德红外 4.64% 0.05% 
-用友网络 4.50% 5.13% 
-荣盛石化 4.03% 0.59% 
-药明康德 3.42% 1.63% 
-兆易创新 2.82% 0.09% 
-亿纬锂能 10.05% 5.21% 
 隆基股份 9.74% 3.89% 
 京东方Ａ 9.51% 0.32% 
 康泰生物 9.30% 11.51% 
@@ -1347,7 +1322,7 @@
 持仓截止日期: 2020-12-31</t>
         </is>
       </c>
-      <c r="H3" s="11" t="inlineStr">
+      <c r="H3" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.8437 3.49% 
 02-09 1.7815 3.38% 
@@ -1359,50 +1334,30 @@
 02-01 1.6948 0.71% 
 01-29 1.6829 -2.25% 
 01-28 1.7217 -5.03% 
-02-10 1.8437 3.49% 
-02-09 1.7815 3.38% 
-02-08 1.7233 1.32% 
-02-05 1.7009 -1.46% 
-02-04 1.7261 -0.48% 
-02-03 1.7345 -0.30% 
-02-02 1.7397 2.65% 
-02-01 1.6948 0.71% 
-01-29 1.6829 -2.25% 
-01-28 1.7217 -5.03% 
-02-10 1.8437 3.49% 
-02-09 1.7815 3.38% 
-02-08 1.7233 1.32% 
-02-05 1.7009 -1.46% 
-02-04 1.7261 -0.48% 
-02-03 1.7345 -0.30% 
-02-02 1.7397 2.65% 
-02-01 1.6948 0.71% 
-01-29 1.6829 -2.25% 
-01-28 1.7217 -5.03% 
 </t>
         </is>
       </c>
-      <c r="I3" s="11" t="inlineStr">
+      <c r="I3" s="16" t="inlineStr">
         <is>
           <t>刘格菘</t>
         </is>
       </c>
-      <c r="J3" s="11" t="inlineStr">
+      <c r="J3" s="16" t="inlineStr">
         <is>
           <t>2020-01-22</t>
         </is>
       </c>
-      <c r="K3" s="11" t="inlineStr">
+      <c r="K3" s="16" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L3" s="11" t="inlineStr">
+      <c r="L3" s="16" t="inlineStr">
         <is>
           <t>239.70亿元</t>
         </is>
       </c>
-      <c r="M3" s="11" t="inlineStr">
+      <c r="M3" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 239.70 
 2020-09-30 236.87 
@@ -1412,7 +1367,7 @@
 </t>
         </is>
       </c>
-      <c r="N3" s="11" t="inlineStr">
+      <c r="N3" s="16" t="inlineStr">
         <is>
           <t>2020-06-30: 193.64%</t>
         </is>

--- a/fund/data.xlsx
+++ b/fund/data.xlsx
@@ -29,7 +29,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -38,6 +45,14 @@
       <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -58,8 +73,77 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -76,23 +160,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,74 +170,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -180,19 +180,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,163 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,8 +377,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -394,45 +403,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,163 +433,193 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -633,7 +633,6 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
@@ -644,39 +643,6 @@
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1093,13 +1059,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="16.9333333333333" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="3" max="5"/>
@@ -1185,34 +1151,214 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="297" customHeight="1">
-      <c r="A2" s="16" t="inlineStr">
+    <row r="2" ht="175" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>1.9731</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>+2.99%</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>1.9706</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>2.86%</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>贵州茅台 8.81% 5.89% 
+伊利股份 8.80% 1.02% 
+青岛啤酒 6.64% -1.32% 
+中国中免 6.63% 7.82% 
+五 粮 液 6.49% 3.99% 
+亿纬锂能 5.74% 5.21% 
+锦江酒店 4.43% 1.66% 
+智飞生物 3.68% 6.57% 
+美团-W 3.61% 3.39% 
+中顺洁柔 3.28% 3.90% 
+前十持仓占比合计：58.11%
+持仓截止日期: 2020-12-31</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02-10 1.9706 2.86% 
+02-09 1.9158 1.70% 
+02-08 1.8837 1.29% 
+02-05 1.8597 1.02% 
+02-04 1.8410 -0.62% 
+02-03 1.8524 0.47% 
+02-02 1.8438 2.67% 
+02-01 1.7958 1.21% 
+01-29 1.7743 0.22% 
+01-28 1.7704 -3.27% 
+</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>王园园</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>23.02亿元</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-12-31 23.02 
+2020-09-30 30.84 
+2020-06-30 14.56 
+2020-03-26 29.81 
+</t>
+        </is>
+      </c>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>2020-06-30: 145.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>国寿安保泰吉纯债一年定开债</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>008902</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>0.9991</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02-10 0.9991 -- 
+02-05 0.9985 -- 
+01-29 0.9983 -- 
+01-22 1.0005 -- 
+01-15 1.0004 -- 
+01-08 0.9997 -- 
+12-31 0.9971 -- 
+12-25 0.9959 -- 
+12-18 0.9945 -- 
+12-11 0.9933 -- 
+</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>陶尹斌</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>9.97亿元</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-12-31 9.97 
+2020-09-30 9.87 
+2020-06-30 9.90 
+2020-03-16 10.00 
+</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>广发科技先锋混合</t>
         </is>
       </c>
-      <c r="B2" s="17" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>008903</t>
         </is>
       </c>
-      <c r="C2" s="16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D2" s="16" t="inlineStr"/>
-      <c r="E2" s="16" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>1.8532</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>+4.02%</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>1.8437</t>
         </is>
       </c>
-      <c r="F2" s="18" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>3.49%</t>
         </is>
       </c>
-      <c r="G2" s="16" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>亿纬锂能 10.05% 5.21% 
 隆基股份 9.74% 3.89% 
@@ -1228,7 +1374,7 @@
 持仓截止日期: 2020-12-31</t>
         </is>
       </c>
-      <c r="H2" s="16" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.8437 3.49% 
 02-09 1.7815 3.38% 
@@ -1243,27 +1389,27 @@
 </t>
         </is>
       </c>
-      <c r="I2" s="16" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>刘格菘</t>
         </is>
       </c>
-      <c r="J2" s="19" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>2020-01-22</t>
         </is>
       </c>
-      <c r="K2" s="19" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L2" s="16" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>239.70亿元</t>
         </is>
       </c>
-      <c r="M2" s="16" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 239.70 
 2020-09-30 236.87 
@@ -1273,105 +1419,189 @@
 </t>
         </is>
       </c>
-      <c r="N2" s="16" t="inlineStr">
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>2020-06-30: 193.64%</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="16" t="inlineStr">
-        <is>
-          <t>广发科技先锋混合</t>
-        </is>
-      </c>
-      <c r="B3" s="20" t="inlineStr">
-        <is>
-          <t>008903</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D3" s="16" t="inlineStr"/>
-      <c r="E3" s="16" t="inlineStr">
-        <is>
-          <t>1.8437</t>
-        </is>
-      </c>
-      <c r="F3" s="16" t="inlineStr">
-        <is>
-          <t>3.49%</t>
-        </is>
-      </c>
-      <c r="G3" s="16" t="inlineStr">
-        <is>
-          <t>亿纬锂能 10.05% 5.21% 
-隆基股份 9.74% 3.89% 
-京东方Ａ 9.51% 0.32% 
-康泰生物 9.30% 11.51% 
-通威股份 8.32% 6.00% 
-高德红外 4.64% 0.05% 
-用友网络 4.50% 5.13% 
-荣盛石化 4.03% 0.59% 
-药明康德 3.42% 1.63% 
-兆易创新 2.82% 0.09% 
-前十持仓占比合计：66.33%
-持仓截止日期: 2020-12-31</t>
-        </is>
-      </c>
-      <c r="H3" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02-10 1.8437 3.49% 
-02-09 1.7815 3.38% 
-02-08 1.7233 1.32% 
-02-05 1.7009 -1.46% 
-02-04 1.7261 -0.48% 
-02-03 1.7345 -0.30% 
-02-02 1.7397 2.65% 
-02-01 1.6948 0.71% 
-01-29 1.6829 -2.25% 
-01-28 1.7217 -5.03% 
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>华安安腾一年定开债</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>008904</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>1.0006</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>+0.05%</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>1.0004</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
-      <c r="I3" s="16" t="inlineStr">
-        <is>
-          <t>刘格菘</t>
-        </is>
-      </c>
-      <c r="J3" s="16" t="inlineStr">
-        <is>
-          <t>2020-01-22</t>
-        </is>
-      </c>
-      <c r="K3" s="16" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02-10 1.0004 0.03% 
+02-09 1.0001 0.02% 
+02-08 0.9999 0.05% 
+02-05 0.9994 -0.01% 
+02-04 0.9995 0.04% 
+02-03 0.9991 0.05% 
+02-02 0.9986 0.06% 
+02-01 0.9980 -0.01% 
+01-29 0.9981 -0.07% 
+01-28 0.9988 -0.05% 
+</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>马晓璇</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L3" s="16" t="inlineStr">
-        <is>
-          <t>239.70亿元</t>
-        </is>
-      </c>
-      <c r="M3" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2020-12-31 239.70 
-2020-09-30 236.87 
-2020-06-30 257.38 
-2020-03-31 248.38 
-2020-01-22 79.10 
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>5.09亿元</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-12-31 5.09 
+2020-09-30 5.05 
+2020-06-30 5.04 
+2020-04-22 5.10 
 </t>
         </is>
       </c>
-      <c r="N3" s="16" t="inlineStr">
-        <is>
-          <t>2020-06-30: 193.64%</t>
-        </is>
-      </c>
+      <c r="N5" s="5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>嘉合锦鹏添利混合A</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>008905</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>1.0078</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>+0.09%</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>1.0073</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>0.04%</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02-10 1.0073 0.04% 
+02-09 1.0069 0.18% 
+02-08 1.0051 0.02% 
+02-05 1.0049 0.03% 
+02-04 1.0046 0.01% 
+02-03 1.0045 -0.04% 
+02-02 1.0049 -0.04% 
+02-01 1.0053 0.19% 
+01-29 1.0034 0.04% 
+01-28 1.0030 -0.12% 
+</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>于启明</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>1.91亿元</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-12-31 1.91 
+2020-09-30 3.04 
+2020-06-30 4.13 
+2020-04-29 5.06 
+</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fund/data.xlsx
+++ b/fund/data.xlsx
@@ -619,7 +619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -632,6 +632,18 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
@@ -1152,37 +1164,37 @@
       </c>
     </row>
     <row r="2" ht="175" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>富国内需增长混合</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="10" t="inlineStr">
         <is>
           <t>008901</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="9" t="inlineStr">
         <is>
           <t>1.9731</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="9" t="inlineStr">
         <is>
           <t>+2.99%</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>1.9706</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>2.86%</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="9" t="inlineStr">
         <is>
           <t>贵州茅台 8.81% 5.89% 
 伊利股份 8.80% 1.02% 
@@ -1198,7 +1210,7 @@
 持仓截止日期: 2020-12-31</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.9706 2.86% 
 02-09 1.9158 1.70% 
@@ -1213,27 +1225,27 @@
 </t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="9" t="inlineStr">
         <is>
           <t>王园园</t>
         </is>
       </c>
-      <c r="J2" s="8" t="inlineStr">
+      <c r="J2" s="12" t="inlineStr">
         <is>
           <t>2020-03-26</t>
         </is>
       </c>
-      <c r="K2" s="8" t="inlineStr">
+      <c r="K2" s="12" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L2" s="5" t="inlineStr">
+      <c r="L2" s="9" t="inlineStr">
         <is>
           <t>23.02亿元</t>
         </is>
       </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 23.02 
 2020-09-30 30.84 
@@ -1242,46 +1254,46 @@
 </t>
         </is>
       </c>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="N2" s="9" t="inlineStr">
         <is>
           <t>2020-06-30: 145.10%</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>国寿安保泰吉纯债一年定开债</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>008902</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr"/>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr"/>
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>0.9991</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="H3" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 0.9991 -- 
 02-05 0.9985 -- 
@@ -1296,27 +1308,27 @@
 </t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="I3" s="9" t="inlineStr">
         <is>
           <t>陶尹斌</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" s="9" t="inlineStr">
         <is>
           <t>2020-03-16</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="9" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="L3" s="9" t="inlineStr">
         <is>
           <t>9.97亿元</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 9.97 
 2020-09-30 9.87 
@@ -1325,40 +1337,40 @@
 </t>
         </is>
       </c>
-      <c r="N3" s="5" t="inlineStr"/>
+      <c r="N3" s="9" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>广发科技先锋混合</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>008903</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="9" t="inlineStr">
         <is>
           <t>1.8532</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="9" t="inlineStr">
         <is>
           <t>+4.02%</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="9" t="inlineStr">
         <is>
           <t>1.8437</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="9" t="inlineStr">
         <is>
           <t>3.49%</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="9" t="inlineStr">
         <is>
           <t>亿纬锂能 10.05% 5.21% 
 隆基股份 9.74% 3.89% 
@@ -1374,7 +1386,7 @@
 持仓截止日期: 2020-12-31</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="H4" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.8437 3.49% 
 02-09 1.7815 3.38% 
@@ -1389,27 +1401,27 @@
 </t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="I4" s="9" t="inlineStr">
         <is>
           <t>刘格菘</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" s="9" t="inlineStr">
         <is>
           <t>2020-01-22</t>
         </is>
       </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="9" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L4" s="5" t="inlineStr">
+      <c r="L4" s="9" t="inlineStr">
         <is>
           <t>239.70亿元</t>
         </is>
       </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="M4" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 239.70 
 2020-09-30 236.87 
@@ -1419,50 +1431,50 @@
 </t>
         </is>
       </c>
-      <c r="N4" s="5" t="inlineStr">
+      <c r="N4" s="9" t="inlineStr">
         <is>
           <t>2020-06-30: 193.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>华安安腾一年定开债</t>
         </is>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>008904</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="9" t="inlineStr">
         <is>
           <t>1.0006</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="9" t="inlineStr">
         <is>
           <t>+0.05%</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="9" t="inlineStr">
         <is>
           <t>1.0004</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="F5" s="9" t="inlineStr">
         <is>
           <t>0.03%</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="H5" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.0004 0.03% 
 02-09 1.0001 0.02% 
@@ -1477,27 +1489,27 @@
 </t>
         </is>
       </c>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="I5" s="9" t="inlineStr">
         <is>
           <t>马晓璇</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="J5" s="9" t="inlineStr">
         <is>
           <t>2020-04-22</t>
         </is>
       </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="9" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L5" s="5" t="inlineStr">
+      <c r="L5" s="9" t="inlineStr">
         <is>
           <t>5.09亿元</t>
         </is>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="M5" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 5.09 
 2020-09-30 5.05 
@@ -1506,46 +1518,51 @@
 </t>
         </is>
       </c>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="N5" s="9" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>嘉合锦鹏添利混合A</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>008905</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>1.0078</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>+0.09%</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>1.0073</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t>0.04%</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="G6" s="9" t="inlineStr">
+        <is>
+          <t>工商银行 1.08% 1.94% 
+中国建筑 1.08% 0.00% 
+浦发银行 1.05% 0.09% 
+中国化学 1.02% 0.64% 
+兖州煤业 0.87% 1.49% 
+前十持仓占比合计：5.10%
+持仓截止日期: 2020-12-31</t>
+        </is>
+      </c>
+      <c r="H6" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.0073 0.04% 
 02-09 1.0069 0.18% 
@@ -1560,27 +1577,27 @@
 </t>
         </is>
       </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="I6" s="9" t="inlineStr">
         <is>
           <t>于启明</t>
         </is>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="J6" s="9" t="inlineStr">
         <is>
           <t>2020-04-29</t>
         </is>
       </c>
-      <c r="K6" s="5" t="inlineStr">
+      <c r="K6" s="9" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L6" s="5" t="inlineStr">
+      <c r="L6" s="9" t="inlineStr">
         <is>
           <t>1.91亿元</t>
         </is>
       </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 1.91 
 2020-09-30 3.04 
@@ -1589,7 +1606,7 @@
 </t>
         </is>
       </c>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="N6" s="9" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n"/>

--- a/fund/data.xlsx
+++ b/fund/data.xlsx
@@ -619,7 +619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -632,6 +632,18 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="center" wrapText="1"/>
@@ -1164,37 +1176,37 @@
       </c>
     </row>
     <row r="2" ht="175" customHeight="1">
-      <c r="A2" s="9" t="inlineStr">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>富国内需增长混合</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
+      <c r="B2" s="14" t="inlineStr">
         <is>
           <t>008901</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="13" t="inlineStr">
         <is>
           <t>1.9731</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
+      <c r="D2" s="13" t="inlineStr">
         <is>
           <t>+2.99%</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="E2" s="13" t="inlineStr">
         <is>
           <t>1.9706</t>
         </is>
       </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="F2" s="15" t="inlineStr">
         <is>
           <t>2.86%</t>
         </is>
       </c>
-      <c r="G2" s="9" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>贵州茅台 8.81% 5.89% 
 伊利股份 8.80% 1.02% 
@@ -1210,7 +1222,7 @@
 持仓截止日期: 2020-12-31</t>
         </is>
       </c>
-      <c r="H2" s="9" t="inlineStr">
+      <c r="H2" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.9706 2.86% 
 02-09 1.9158 1.70% 
@@ -1225,27 +1237,27 @@
 </t>
         </is>
       </c>
-      <c r="I2" s="9" t="inlineStr">
+      <c r="I2" s="13" t="inlineStr">
         <is>
           <t>王园园</t>
         </is>
       </c>
-      <c r="J2" s="12" t="inlineStr">
+      <c r="J2" s="16" t="inlineStr">
         <is>
           <t>2020-03-26</t>
         </is>
       </c>
-      <c r="K2" s="12" t="inlineStr">
+      <c r="K2" s="16" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L2" s="9" t="inlineStr">
+      <c r="L2" s="13" t="inlineStr">
         <is>
           <t>23.02亿元</t>
         </is>
       </c>
-      <c r="M2" s="9" t="inlineStr">
+      <c r="M2" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 23.02 
 2020-09-30 30.84 
@@ -1254,46 +1266,46 @@
 </t>
         </is>
       </c>
-      <c r="N2" s="9" t="inlineStr">
+      <c r="N2" s="13" t="inlineStr">
         <is>
           <t>2020-06-30: 145.10%</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="inlineStr">
+      <c r="A3" s="13" t="inlineStr">
         <is>
           <t>国寿安保泰吉纯债一年定开债</t>
         </is>
       </c>
-      <c r="B3" s="10" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>008902</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="13" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr"/>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="D3" s="13" t="inlineStr"/>
+      <c r="E3" s="13" t="inlineStr">
         <is>
           <t>0.9991</t>
         </is>
       </c>
-      <c r="F3" s="9" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G3" s="9" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="H3" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 0.9991 -- 
 02-05 0.9985 -- 
@@ -1308,27 +1320,27 @@
 </t>
         </is>
       </c>
-      <c r="I3" s="9" t="inlineStr">
+      <c r="I3" s="13" t="inlineStr">
         <is>
           <t>陶尹斌</t>
         </is>
       </c>
-      <c r="J3" s="9" t="inlineStr">
+      <c r="J3" s="13" t="inlineStr">
         <is>
           <t>2020-03-16</t>
         </is>
       </c>
-      <c r="K3" s="9" t="inlineStr">
+      <c r="K3" s="13" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L3" s="9" t="inlineStr">
+      <c r="L3" s="13" t="inlineStr">
         <is>
           <t>9.97亿元</t>
         </is>
       </c>
-      <c r="M3" s="9" t="inlineStr">
+      <c r="M3" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 9.97 
 2020-09-30 9.87 
@@ -1337,40 +1349,40 @@
 </t>
         </is>
       </c>
-      <c r="N3" s="9" t="inlineStr"/>
+      <c r="N3" s="13" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="A4" s="13" t="inlineStr">
         <is>
           <t>广发科技先锋混合</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="14" t="inlineStr">
         <is>
           <t>008903</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="13" t="inlineStr">
         <is>
           <t>1.8532</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D4" s="13" t="inlineStr">
         <is>
           <t>+4.02%</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E4" s="13" t="inlineStr">
         <is>
           <t>1.8437</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>3.49%</t>
         </is>
       </c>
-      <c r="G4" s="9" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>亿纬锂能 10.05% 5.21% 
 隆基股份 9.74% 3.89% 
@@ -1386,7 +1398,7 @@
 持仓截止日期: 2020-12-31</t>
         </is>
       </c>
-      <c r="H4" s="9" t="inlineStr">
+      <c r="H4" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.8437 3.49% 
 02-09 1.7815 3.38% 
@@ -1401,27 +1413,27 @@
 </t>
         </is>
       </c>
-      <c r="I4" s="9" t="inlineStr">
+      <c r="I4" s="13" t="inlineStr">
         <is>
           <t>刘格菘</t>
         </is>
       </c>
-      <c r="J4" s="9" t="inlineStr">
+      <c r="J4" s="13" t="inlineStr">
         <is>
           <t>2020-01-22</t>
         </is>
       </c>
-      <c r="K4" s="9" t="inlineStr">
+      <c r="K4" s="13" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L4" s="9" t="inlineStr">
+      <c r="L4" s="13" t="inlineStr">
         <is>
           <t>239.70亿元</t>
         </is>
       </c>
-      <c r="M4" s="9" t="inlineStr">
+      <c r="M4" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 239.70 
 2020-09-30 236.87 
@@ -1431,50 +1443,50 @@
 </t>
         </is>
       </c>
-      <c r="N4" s="9" t="inlineStr">
+      <c r="N4" s="13" t="inlineStr">
         <is>
           <t>2020-06-30: 193.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="inlineStr">
+      <c r="A5" s="13" t="inlineStr">
         <is>
           <t>华安安腾一年定开债</t>
         </is>
       </c>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="14" t="inlineStr">
         <is>
           <t>008904</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>1.0006</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>+0.05%</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>1.0004</t>
         </is>
       </c>
-      <c r="F5" s="9" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>0.03%</t>
         </is>
       </c>
-      <c r="G5" s="9" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
-      <c r="H5" s="9" t="inlineStr">
+      <c r="H5" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.0004 0.03% 
 02-09 1.0001 0.02% 
@@ -1489,27 +1501,27 @@
 </t>
         </is>
       </c>
-      <c r="I5" s="9" t="inlineStr">
+      <c r="I5" s="13" t="inlineStr">
         <is>
           <t>马晓璇</t>
         </is>
       </c>
-      <c r="J5" s="9" t="inlineStr">
+      <c r="J5" s="13" t="inlineStr">
         <is>
           <t>2020-04-22</t>
         </is>
       </c>
-      <c r="K5" s="9" t="inlineStr">
+      <c r="K5" s="13" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L5" s="9" t="inlineStr">
+      <c r="L5" s="13" t="inlineStr">
         <is>
           <t>5.09亿元</t>
         </is>
       </c>
-      <c r="M5" s="9" t="inlineStr">
+      <c r="M5" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 5.09 
 2020-09-30 5.05 
@@ -1518,40 +1530,40 @@
 </t>
         </is>
       </c>
-      <c r="N5" s="9" t="inlineStr"/>
+      <c r="N5" s="13" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="inlineStr">
+      <c r="A6" s="13" t="inlineStr">
         <is>
           <t>嘉合锦鹏添利混合A</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="14" t="inlineStr">
         <is>
           <t>008905</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="13" t="inlineStr">
         <is>
           <t>1.0078</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="13" t="inlineStr">
         <is>
           <t>+0.09%</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="E6" s="13" t="inlineStr">
         <is>
           <t>1.0073</t>
         </is>
       </c>
-      <c r="F6" s="9" t="inlineStr">
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>0.04%</t>
         </is>
       </c>
-      <c r="G6" s="9" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>工商银行 1.08% 1.94% 
 中国建筑 1.08% 0.00% 
@@ -1562,7 +1574,7 @@
 持仓截止日期: 2020-12-31</t>
         </is>
       </c>
-      <c r="H6" s="9" t="inlineStr">
+      <c r="H6" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">02-10 1.0073 0.04% 
 02-09 1.0069 0.18% 
@@ -1577,27 +1589,27 @@
 </t>
         </is>
       </c>
-      <c r="I6" s="9" t="inlineStr">
+      <c r="I6" s="13" t="inlineStr">
         <is>
           <t>于启明</t>
         </is>
       </c>
-      <c r="J6" s="9" t="inlineStr">
+      <c r="J6" s="13" t="inlineStr">
         <is>
           <t>2020-04-29</t>
         </is>
       </c>
-      <c r="K6" s="9" t="inlineStr">
+      <c r="K6" s="13" t="inlineStr">
         <is>
           <t>2020-12-31</t>
         </is>
       </c>
-      <c r="L6" s="9" t="inlineStr">
+      <c r="L6" s="13" t="inlineStr">
         <is>
           <t>1.91亿元</t>
         </is>
       </c>
-      <c r="M6" s="9" t="inlineStr">
+      <c r="M6" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">2020-12-31 1.91 
 2020-09-30 3.04 
@@ -1606,7 +1618,7 @@
 </t>
         </is>
       </c>
-      <c r="N6" s="9" t="inlineStr"/>
+      <c r="N6" s="13" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="B7" s="2" t="n"/>
